--- a/notebooks/assets/features_0_01/grid_0_01_0418_0425_2021.xlsx
+++ b/notebooks/assets/features_0_01/grid_0_01_0418_0425_2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Features</t>
   </si>
@@ -22,88 +22,106 @@
     <t>Borda Count Voting</t>
   </si>
   <si>
+    <t>pm10_cams</t>
+  </si>
+  <si>
     <t>pm10_int</t>
   </si>
   <si>
+    <t>air_hum_int</t>
+  </si>
+  <si>
+    <t>nh3_cams</t>
+  </si>
+  <si>
     <t>pm25_cams</t>
   </si>
   <si>
-    <t>nh3_cams</t>
-  </si>
-  <si>
-    <t>pm10_cams</t>
+    <t>so2_int</t>
+  </si>
+  <si>
+    <t>co_cams</t>
+  </si>
+  <si>
+    <t>nmvocs_cams</t>
+  </si>
+  <si>
+    <t>pm25_int</t>
+  </si>
+  <si>
+    <t>press</t>
+  </si>
+  <si>
+    <t>rad_glob_int</t>
+  </si>
+  <si>
+    <t>temp_int</t>
+  </si>
+  <si>
+    <t>temp_2m</t>
+  </si>
+  <si>
+    <t>no_cams</t>
+  </si>
+  <si>
+    <t>aspect_major</t>
+  </si>
+  <si>
+    <t>int_prim_sec</t>
+  </si>
+  <si>
+    <t>prim_road</t>
+  </si>
+  <si>
+    <t>no2_cams</t>
+  </si>
+  <si>
+    <t>ndvi</t>
+  </si>
+  <si>
+    <t>so2_cams</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>farm_pigs</t>
+  </si>
+  <si>
+    <t>nox_int</t>
+  </si>
+  <si>
+    <t>int_sec</t>
+  </si>
+  <si>
+    <t>sec_road</t>
+  </si>
+  <si>
+    <t>h_mean</t>
   </si>
   <si>
     <t>no2_int</t>
   </si>
   <si>
-    <t>nox_int</t>
+    <t>farm_poultry</t>
+  </si>
+  <si>
+    <t>farm_sheep</t>
+  </si>
+  <si>
+    <t>highway</t>
   </si>
   <si>
     <t>o3_int</t>
   </si>
   <si>
-    <t>no2_cams</t>
+    <t>o3_cams</t>
+  </si>
+  <si>
+    <t>slope_mean</t>
   </si>
   <si>
     <t>aod_047</t>
-  </si>
-  <si>
-    <t>nmvocs_cams</t>
-  </si>
-  <si>
-    <t>sec_road</t>
-  </si>
-  <si>
-    <t>h_mean</t>
-  </si>
-  <si>
-    <t>press</t>
-  </si>
-  <si>
-    <t>aod_055</t>
-  </si>
-  <si>
-    <t>int_sec</t>
-  </si>
-  <si>
-    <t>air_hum_int</t>
-  </si>
-  <si>
-    <t>nh3_int</t>
-  </si>
-  <si>
-    <t>aspect_major</t>
-  </si>
-  <si>
-    <t>co_cams</t>
-  </si>
-  <si>
-    <t>o3_cams</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>int_prim_sec</t>
-  </si>
-  <si>
-    <t>slope_mean</t>
-  </si>
-  <si>
-    <t>rad_glob_int</t>
-  </si>
-  <si>
-    <t>farm_sheep</t>
-  </si>
-  <si>
-    <t>ndvi</t>
-  </si>
-  <si>
-    <t>farm_pigs</t>
-  </si>
-  <si>
-    <t>prim_road</t>
   </si>
 </sst>
 </file>
@@ -461,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,35 +495,35 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>160</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>151</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -516,183 +534,183 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>146</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>136</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>134</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>131</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>124</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>120</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <v>120</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>114</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
-        <v>113</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14">
-        <v>109</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21">
-        <v>82</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -703,84 +721,150 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>63</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23">
-        <v>62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
       <c r="C24">
-        <v>61</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25">
-        <v>61</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
       <c r="C26">
-        <v>52</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
       <c r="C27">
-        <v>50</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
       <c r="C28">
-        <v>46</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29">
-        <v>40</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
